--- a/src/cards-presentation/eyetracker_data/participants.xlsx
+++ b/src/cards-presentation/eyetracker_data/participants.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/konstantinp/projects/python-dangerzone/src/cards-presentation/eyetracker_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D790FDC8-1E9D-8342-9115-03BC37BE7125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C897458F-CD00-474B-A49F-13F86DB1D018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="22700" windowHeight="14480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>seq</t>
   </si>
@@ -101,6 +101,48 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>I120922</t>
+  </si>
+  <si>
+    <t>S120922</t>
+  </si>
+  <si>
+    <t>N120922</t>
+  </si>
+  <si>
+    <t>A130922</t>
+  </si>
+  <si>
+    <t>M130922</t>
+  </si>
+  <si>
+    <t>E130922</t>
+  </si>
+  <si>
+    <t>L130922</t>
+  </si>
+  <si>
+    <t>T140922</t>
+  </si>
+  <si>
+    <t>A140922</t>
+  </si>
+  <si>
+    <t>D140922</t>
+  </si>
+  <si>
+    <t>D150922</t>
+  </si>
+  <si>
+    <t>Y150922</t>
+  </si>
+  <si>
+    <t>A150922</t>
+  </si>
+  <si>
+    <t>Y190922</t>
   </si>
 </sst>
 </file>
@@ -495,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -683,6 +725,118 @@
         <v>20</v>
       </c>
     </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
